--- a/resources/RingCell_Excel.xlsx
+++ b/resources/RingCell_Excel.xlsx
@@ -374,12 +374,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -449,15 +449,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>756720</xdr:colOff>
+      <xdr:colOff>830160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -470,13 +470,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="213840" y="628920"/>
-          <a:ext cx="3164040" cy="2221560"/>
+          <a:off x="287640" y="619200"/>
+          <a:ext cx="3163680" cy="2221200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -492,9 +492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>629640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,12 +508,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2160360" y="2351520"/>
-          <a:ext cx="1090800" cy="391680"/>
+          <a:ext cx="1090440" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -529,9 +529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>201240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -541,7 +541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1041480" y="1021320"/>
-          <a:ext cx="152280" cy="32400"/>
+          <a:ext cx="151920" cy="32040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -549,7 +549,7 @@
         <a:solidFill>
           <a:srgbClr val="1c1c1c"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -573,9 +573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>208080</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -585,7 +585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047960" y="2265120"/>
-          <a:ext cx="152280" cy="32400"/>
+          <a:ext cx="151920" cy="32040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,7 +593,7 @@
         <a:solidFill>
           <a:srgbClr val="1c1c1c"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -617,9 +617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:colOff>349560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -629,7 +629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="497520" y="1585800"/>
-          <a:ext cx="32040" cy="150840"/>
+          <a:ext cx="31680" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -637,7 +637,7 @@
         <a:solidFill>
           <a:srgbClr val="dddddd"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -661,9 +661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>770040</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -673,7 +673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1730160" y="1582920"/>
-          <a:ext cx="32040" cy="150840"/>
+          <a:ext cx="31680" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,7 +681,7 @@
         <a:solidFill>
           <a:srgbClr val="dddddd"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -710,14 +710,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
